--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0901856-B51D-436B-922D-A43FB279C0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C9E1A-C0EE-4001-998A-682682EBA65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Amazon" sheetId="2" r:id="rId1"/>
-    <sheet name="Walmart" sheetId="3" r:id="rId2"/>
-    <sheet name="Gamestop" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Amazon" sheetId="2" r:id="rId2"/>
+    <sheet name="Walmart" sheetId="3" r:id="rId3"/>
+    <sheet name="Gamestop" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Products:</t>
   </si>
@@ -47,28 +48,28 @@
     <t>IPad</t>
   </si>
   <si>
+    <t>PS5</t>
+  </si>
+  <si>
     <t>Leaf Blower</t>
   </si>
   <si>
+    <t>Basketball Hoop</t>
+  </si>
+  <si>
     <t>Sunglasses</t>
   </si>
   <si>
-    <t>Champion Hoodie</t>
-  </si>
-  <si>
-    <t>Basketball Hoop</t>
-  </si>
-  <si>
     <t>Blender</t>
   </si>
   <si>
-    <t>PS5</t>
-  </si>
-  <si>
-    <t>Far Cry 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oculus </t>
+    <t>Hoodie</t>
+  </si>
+  <si>
+    <t>Videogame</t>
+  </si>
+  <si>
+    <t>Controller</t>
   </si>
 </sst>
 </file>
@@ -104,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,11 +423,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0A0ACE-1CAB-4394-8F86-41DF94728AEA}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>15.99</v>
+      </c>
+      <c r="C2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>329.99</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>169.99</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>21.99</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>169.99</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>499.99</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>59.99</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>59.99</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B994EE6-A249-4D1D-9430-1D3D3786FCE2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,7 +590,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>169.99</v>
@@ -466,7 +601,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>15.99</v>
@@ -480,12 +615,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B97CFD-2349-43F9-A6A0-271EF4D40844}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +641,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>21.99</v>
@@ -517,7 +652,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>169.99</v>
@@ -542,12 +677,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785F2214-F614-4995-A754-1B78C5B5F1DE}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +700,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>499.99</v>
@@ -582,7 +717,7 @@
         <v>59.99</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -590,10 +725,10 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>399.99</v>
+        <v>59.99</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Vendors.xlsx
+++ b/Vendors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C9E1A-C0EE-4001-998A-682682EBA65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91720426-7AB1-4705-819D-3BB57EDD26A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Products:</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Controller</t>
+  </si>
+  <si>
+    <t>Vendors:</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Gamestop</t>
   </si>
 </sst>
 </file>
@@ -427,7 +439,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +454,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -459,6 +473,9 @@
       <c r="C2">
         <v>57</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -470,6 +487,9 @@
       <c r="C3">
         <v>25</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -481,6 +501,9 @@
       <c r="C4">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -492,6 +515,9 @@
       <c r="C5">
         <v>16</v>
       </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -503,6 +529,9 @@
       <c r="C6">
         <v>3</v>
       </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -514,6 +543,9 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -525,6 +557,9 @@
       <c r="C8">
         <v>0</v>
       </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -536,6 +571,9 @@
       <c r="C9">
         <v>33</v>
       </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -546,6 +584,9 @@
       </c>
       <c r="C10">
         <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
